--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843C2278-D312-4897-9F2A-2C0D3F0BA99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0D19D-DAEE-4C07-AE0C-A911757ACEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2004,7 +2004,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>2.3088890144046248E-3</v>
+        <v>2.4928263090292502E-3</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2117,11 +2117,11 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="e">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.99966870135288033</v>
       </c>
       <c r="J7" s="1" t="e">
@@ -2133,7 +2133,7 @@
         <v>3.3129864711967105E-4</v>
       </c>
       <c r="L7" s="1" t="e">
-        <f>F7*J7</f>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="1" t="e">
@@ -2141,7 +2141,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
         <v>0</v>
       </c>
       <c r="O7" s="1">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="e">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.99988103925052074</v>
       </c>
       <c r="J8" s="1" t="e">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="4">1-H8</f>
         <v>#VALUE!</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1896074947925772E-4</v>
       </c>
       <c r="L8" s="1" t="e">
-        <f>F8*J8</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="1" t="e">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
         <v>#VALUE!</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
-        <v>1.1896074947925772E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
-        <v>1</v>
+        <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
+        <v>0.99988103925052074</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2215,35 +2215,35 @@
         <v>0</v>
       </c>
       <c r="H9" s="1" t="e">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
-        <v>0.99896872000000003</v>
-      </c>
-      <c r="J9" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99896872000000003</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0312799999999678E-3</v>
       </c>
       <c r="L9" s="1" t="e">
-        <f>F9*J9</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99896872000000003</v>
       </c>
     </row>
@@ -2264,35 +2264,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <f>F10*J10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2313,35 +2313,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.99960751132453574</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
-        <v>0.99960751132453574</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9248867546426425E-4</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9248867546426425E-4</v>
-      </c>
-      <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0.99960751132453574</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9248867546426425E-4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9248867546426425E-4</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99960751132453574</v>
+      </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99960751132453574</v>
       </c>
     </row>
@@ -2359,39 +2359,39 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="e">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
-        <v>0.99944432722774523</v>
-      </c>
-      <c r="J12" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99944432722774523</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.5567277225476719E-4</v>
       </c>
       <c r="L12" s="1" t="e">
-        <f>F12*J12</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M12" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
-        <v>5.5567277225476719E-4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99944432722774523</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2408,39 +2408,39 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="e">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
-        <v>0.99993458999999996</v>
-      </c>
-      <c r="J13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99993458999999996</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>6.5410000000043489E-5</v>
       </c>
       <c r="L13" s="1" t="e">
-        <f>F13*J13</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M13" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
-        <v>6.5410000000043489E-5</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.99993458999999996</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>5.5567277225476719E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A0D19D-DAEE-4C07-AE0C-A911757ACEB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09037942-1C6E-4A69-8B46-C562DB31FE40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>2.4928263090292502E-3</v>
+        <v>2.3088890144046248E-3</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2191,11 +2191,11 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1896074947925772E-4</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
-        <v>0.99988103925052074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2387,11 +2387,11 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5.5567277225476719E-4</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="6"/>
-        <v>0.99944432722774523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2436,11 +2436,11 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.5410000000043489E-5</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" si="6"/>
-        <v>0.99993458999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>5.5567277225476719E-4</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 83-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0A4D6E-1414-4F69-BEC3-164259BE0D93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E1C72C-0A9B-488A-9949-6BA0EE9B8226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>Macrostabiliteit</t>
   </si>
   <si>
-    <t>Erosie van het buitentalud</t>
-  </si>
-  <si>
     <t>Duinafslag</t>
   </si>
   <si>
@@ -455,6 +452,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1770,19 +1770,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -1807,7 +1807,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1821,10 +1821,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -1833,21 +1833,21 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -1889,16 +1889,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
@@ -1906,16 +1906,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>96</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
@@ -1952,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
   </sheetPr>
   <dimension ref="B2:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7:O13"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2022,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2076,39 +2076,39 @@
         <v>38</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>STPH!C7</f>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>STBI!C7</f>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="31" t="str">
         <f>GEKB!C7</f>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>HTKW!C7</f>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="31" t="str">
         <f>BSKW!C7</f>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2571,31 +2571,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>69</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -12276,7 +12276,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="9">
         <v>15.9</v>
@@ -12378,12 +12378,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>36</v>
@@ -12539,7 +12539,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -12547,15 +12547,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z39)</f>
@@ -12608,7 +12608,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R39)</f>
@@ -12628,7 +12628,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -12687,10 +12687,10 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -13451,7 +13451,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>5.593</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>5.8650000000000002</v>
@@ -13619,7 +13619,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>5.9429999999999996</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>5.9660000000000002</v>
@@ -13783,7 +13783,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>7.3979999999999997</v>
@@ -13871,7 +13871,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>9.1419999999999995</v>
@@ -13955,7 +13955,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>10.696999999999999</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>11.731999999999999</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>11.987</v>
@@ -14215,7 +14215,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>12.054</v>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>13.653</v>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9">
         <v>13.868</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="9">
         <v>14.237</v>
@@ -14555,7 +14555,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="9">
         <v>15.472</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -14839,15 +14839,15 @@
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(Z16:Z41)</f>
@@ -14900,7 +14900,7 @@
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R41)</f>
@@ -14920,7 +14920,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -14979,10 +14979,10 @@
         <v>60</v>
       </c>
       <c r="Y15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="Z15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
@@ -15755,7 +15755,7 @@
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>5.4870000000000001</v>
@@ -15843,7 +15843,7 @@
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>5.8280000000000003</v>
@@ -15931,7 +15931,7 @@
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>5.8760000000000003</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>6.8330000000000002</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>7.7610000000000001</v>
@@ -16183,7 +16183,7 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>8.01</v>
@@ -16267,7 +16267,7 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>8.0380000000000003</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>8.18</v>
@@ -16435,7 +16435,7 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>8.5459999999999994</v>
@@ -16519,7 +16519,7 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>8.6720000000000006</v>
@@ -16607,7 +16607,7 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>10.29</v>
@@ -16695,7 +16695,7 @@
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9">
         <v>10.885999999999999</v>
@@ -16779,7 +16779,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="9">
         <v>11.478999999999999</v>
@@ -16867,7 +16867,7 @@
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="9">
         <v>14.391</v>
@@ -17169,8 +17169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:X78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17194,7 +17194,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -17207,7 +17207,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -17215,15 +17215,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -17258,7 +17258,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V76)</f>
@@ -17276,7 +17276,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N76)</f>
@@ -17327,10 +17327,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -17343,10 +17343,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -18001,7 +18001,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>5.2990000000000004</v>
@@ -18073,7 +18073,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>5.7690000000000001</v>
@@ -18145,7 +18145,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>6.5860000000000003</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>6.81</v>
@@ -18289,7 +18289,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>6.8840000000000003</v>
@@ -18361,7 +18361,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>8.1240000000000006</v>
@@ -18433,7 +18433,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>9.9030000000000005</v>
@@ -18505,7 +18505,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>11.448</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>12.476000000000001</v>
@@ -18649,7 +18649,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>12.936</v>
@@ -18721,7 +18721,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>13.65</v>
@@ -18795,7 +18795,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C36" s="9">
         <v>13.964</v>
@@ -18867,7 +18867,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C37" s="9">
         <v>14.227</v>
@@ -18939,7 +18939,7 @@
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="9">
         <v>14.369</v>
@@ -19993,7 +19993,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -20006,7 +20006,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -20014,15 +20014,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -20057,7 +20057,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16)</f>
@@ -20075,7 +20075,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -20142,10 +20142,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -20370,7 +20370,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -20383,7 +20383,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -20391,15 +20391,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>18</v>
@@ -20434,7 +20434,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V38)</f>
@@ -20452,7 +20452,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N38)</f>
@@ -20503,10 +20503,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -20519,10 +20519,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -21181,7 +21181,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>9.1259999999999994</v>
@@ -21253,7 +21253,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>9.2959999999999994</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>10.747999999999999</v>
@@ -21397,7 +21397,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>10.901</v>
@@ -21469,7 +21469,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>11.173999999999999</v>
@@ -21541,7 +21541,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>11.19</v>
@@ -21613,7 +21613,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>11.24</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>12.808</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>12.863</v>
@@ -21833,7 +21833,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>13.500999999999999</v>
@@ -21907,7 +21907,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>13.965</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="9">
         <v>14.763999999999999</v>
@@ -22051,7 +22051,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="9">
         <v>15.023</v>
@@ -22125,7 +22125,7 @@
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="14">
         <v>15.718999999999999</v>
@@ -22342,7 +22342,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -22355,7 +22355,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -22363,15 +22363,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -22406,7 +22406,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V38)</f>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N38)</f>
@@ -22475,10 +22475,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -22491,10 +22491,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -23149,7 +23149,7 @@
     </row>
     <row r="25" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>9.1259999999999994</v>
@@ -23221,7 +23221,7 @@
     </row>
     <row r="26" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>9.2959999999999994</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>10.747999999999999</v>
@@ -23367,7 +23367,7 @@
     </row>
     <row r="28" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>10.901</v>
@@ -23439,7 +23439,7 @@
     </row>
     <row r="29" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>11.173999999999999</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="30" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>11.19</v>
@@ -23583,7 +23583,7 @@
     </row>
     <row r="31" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>11.24</v>
@@ -23655,7 +23655,7 @@
     </row>
     <row r="32" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>12.808</v>
@@ -23729,7 +23729,7 @@
     </row>
     <row r="33" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>12.863</v>
@@ -23801,7 +23801,7 @@
     </row>
     <row r="34" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>13.500999999999999</v>
@@ -23822,7 +23822,7 @@
         <v>17</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J34" s="10" t="str">
         <f t="shared" si="0"/>
@@ -23875,7 +23875,7 @@
     </row>
     <row r="35" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>13.965</v>
@@ -23949,7 +23949,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="9">
         <v>14.763999999999999</v>
@@ -24021,7 +24021,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="9">
         <v>15.023</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="14">
         <v>15.718999999999999</v>
@@ -24173,23 +24173,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G20 G22:G38">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K38">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24312,7 +24312,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
@@ -24325,7 +24325,7 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -24333,15 +24333,15 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>17</v>
@@ -24376,7 +24376,7 @@
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(V16:V38)</f>
@@ -24394,7 +24394,7 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N38)</f>
@@ -24445,10 +24445,10 @@
         <v>40</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>77</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>78</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>58</v>
@@ -24461,10 +24461,10 @@
         <v>60</v>
       </c>
       <c r="U15" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>125</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -25121,7 +25121,7 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="9">
         <v>9.1259999999999994</v>
@@ -25193,7 +25193,7 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="9">
         <v>9.2959999999999994</v>
@@ -25265,7 +25265,7 @@
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9">
         <v>10.747999999999999</v>
@@ -25339,7 +25339,7 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C28" s="9">
         <v>10.901</v>
@@ -25411,7 +25411,7 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9">
         <v>11.173999999999999</v>
@@ -25483,7 +25483,7 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" s="9">
         <v>11.19</v>
@@ -25555,7 +25555,7 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9">
         <v>11.24</v>
@@ -25629,7 +25629,7 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="9">
         <v>12.808</v>
@@ -25703,7 +25703,7 @@
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="9">
         <v>12.863</v>
@@ -25777,7 +25777,7 @@
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="9">
         <v>13.500999999999999</v>
@@ -25851,7 +25851,7 @@
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="9">
         <v>13.965</v>
@@ -25923,7 +25923,7 @@
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="9">
         <v>14.763999999999999</v>
@@ -25995,7 +25995,7 @@
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="9">
         <v>15.023</v>
@@ -26067,7 +26067,7 @@
     </row>
     <row r="38" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="14">
         <v>15.718999999999999</v>
@@ -26145,23 +26145,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G38">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I38">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K38">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
